--- a/data/trans_bre/P25_4-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_4-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,76</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>-2,97</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>26,22%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>65,82%</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>-0,61%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-69,49%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-72,97%</t>
         </is>
       </c>
     </row>
@@ -668,40 +720,60 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 4,63</t>
+          <t>-2,88; 3,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 3,14</t>
+          <t>-8,05; 1,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,09</t>
+          <t>0,0; 2,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,15; -0,94</t>
+          <t>0,0; 3,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>-7,67; -0,88</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-7,24; 0,76</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -725,37 +797,57 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>-1,38</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>185,66%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>36,04%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-26,66%</t>
+          <t>188,5%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>43,73%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-7,94%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-26,64%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>227,98%</t>
         </is>
       </c>
     </row>
@@ -773,37 +865,57 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 3,13</t>
+          <t>-0,59; 3,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 1,5</t>
+          <t>-1,38; 1,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 2,95</t>
+          <t>-2,17; 1,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-8,0; 2,85</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 5,27</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-82,94; 147,79</t>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-78,3; 176,35</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>-0,13</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>40,23%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>541,47%</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>161,87%</t>
+          <t>19,49%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-7,01%</t>
+          <t>532,35%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>167,05%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>55,36%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-6,99%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>386,46%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 1,69</t>
+          <t>-1,57; 1,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,38</t>
+          <t>0,22; 3,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 3,4</t>
+          <t>-0,18; 3,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 2,47</t>
+          <t>-1,38; 6,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-2,94; 2,19</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-0,01; 5,99</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-44,26; 1256,66</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 440,32</t>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-42,78; 1513,94</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-68,79; 703,21</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 328,71</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>-0,04</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>1,95</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>48,24%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-33,34%</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>48,51%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>86,52%</t>
+          <t>-30,99%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>14,33%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-1,84%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>86,49%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>75,3%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 3,34</t>
+          <t>-1,4; 3,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 1,47</t>
+          <t>-3,32; 1,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 2,14</t>
+          <t>-1,67; 2,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 4,92</t>
+          <t>-2,85; 2,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-65,57; 697,2</t>
+          <t>-1,19; 5,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-78,49; 123,2</t>
+          <t>-1,31; 6,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-67,05; 264,61</t>
+          <t>-60,64; 710,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-39,6; 531,13</t>
+          <t>-77,72; 95,81</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-71,7; 298,42</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-75,59; 223,2</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-40,3; 648,93</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-33,44; 450,32</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>-4,01</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>-2,45</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>-3,56</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>10,62%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-14,48%</t>
+          <t>-3,75</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-44,35%</t>
+          <t>13,63%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-35,46%</t>
+          <t>-10,86%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-42,25%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-33,52%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-35,45%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-36,11%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 4,24</t>
+          <t>-3,43; 4,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 3,12</t>
+          <t>-5,0; 3,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 0,24</t>
+          <t>-11,11; 0,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 1,9</t>
+          <t>-7,99; 2,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-62,68; 194,98</t>
+          <t>-9,46; 1,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-58,64; 85,01</t>
+          <t>-9,57; 2,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-75,4; 8,16</t>
+          <t>-61,57; 206,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-69,2; 30,64</t>
+          <t>-62,0; 84,4</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-75,7; 12,22</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-76,14; 71,64</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-70,23; 28,91</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-71,12; 32,52</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-6,69</t>
+          <t>-6,2</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-8,6</t>
+          <t>-8,31</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-4,87</t>
+          <t>-3,67</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-10,52</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-52,82%</t>
+          <t>-10,51</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-60,42%</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-37,6%</t>
+          <t>-46,29%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-84,96%</t>
+          <t>-58,89%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-28,58%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-40,82%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-84,95%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>6,86%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,02; -0,11</t>
+          <t>-13,05; 0,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,44; -2,41</t>
+          <t>-15,58; -1,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,63; 1,76</t>
+          <t>-10,41; 3,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-17,96; -4,85</t>
+          <t>-9,81; 2,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-79,29; 6,13</t>
+          <t>-18,14; -4,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-82,32; -21,69</t>
+          <t>-6,0; 7,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-69,81; 21,15</t>
+          <t>-74,78; 23,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -52,11</t>
+          <t>-81,4; -9,73</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-63,1; 45,98</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-78,68; 47,08</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-96,24; -46,39</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-52,1; 117,45</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-15,83%</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-25,26%</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-16,88%</t>
+          <t>-13,7%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-44,17%</t>
+          <t>-28,49%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-9,75%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-14,22%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-44,16%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>21,41%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 0,91</t>
+          <t>-2,04; 1,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 0,44</t>
+          <t>-2,7; 0,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 0,79</t>
+          <t>-2,01; 1,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,35; -0,6</t>
+          <t>-2,02; 1,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-48,9; 36,25</t>
+          <t>-4,3; -0,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-51,22; 16,29</t>
+          <t>-1,02; 2,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-45,05; 28,06</t>
+          <t>-47,82; 40,32</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-64,25; -11,48</t>
+          <t>-53,95; 17,15</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-43,21; 42,65</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-49,51; 43,26</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-62,64; -10,51</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-21,26; 78,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
